--- a/python/dose_stats.xlsx
+++ b/python/dose_stats.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.675372874121874e-05</v>
+        <v>7.886763095285065e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>13120281.72215302</v>
+        <v>27256682.26587272</v>
       </c>
       <c r="D2" t="n">
-        <v>217.2980732572754</v>
+        <v>498.6851496220959</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.10720593782087e-05</v>
+        <v>1.093930721444368e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>56670073.01712874</v>
+        <v>162870561.137946</v>
       </c>
       <c r="D3" t="n">
-        <v>199.7971690270306</v>
+        <v>615.5199452224191</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.748722253430275e-05</v>
+        <v>7.125539916252986e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>16467231.443227</v>
+        <v>159720653.2564874</v>
       </c>
       <c r="D4" t="n">
-        <v>287.783967491873</v>
+        <v>997.9854179211003</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.460621306716342e-05</v>
+        <v>7.100702297218785e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>73591321.70931122</v>
+        <v>105559349.121736</v>
       </c>
       <c r="D5" t="n">
         <v>993.0211108206461</v>
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.102730780108574e-05</v>
+        <v>9.116460792745305e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>154770725.6432181</v>
+        <v>342508812.4067448</v>
       </c>
       <c r="D6" t="n">
-        <v>315.1062450788087</v>
+        <v>658.5831432223387</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0004197908586092042</v>
+        <v>0.0007579375570441846</v>
       </c>
       <c r="C7" t="n">
-        <v>16380564.57247729</v>
+        <v>43206793.04731993</v>
       </c>
       <c r="D7" t="n">
-        <v>960.5978755599798</v>
+        <v>997.5880125396432</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.800606507780199e-05</v>
+        <v>3.206212703005701e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>246157413.0501571</v>
+        <v>321330122.8298462</v>
       </c>
       <c r="D8" t="n">
         <v>952.3325383118373</v>
@@ -609,13 +609,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.227855778936794e-06</v>
+        <v>1.72941540388057e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>349074548.168375</v>
+        <v>406173802.8561106</v>
       </c>
       <c r="D9" t="n">
-        <v>108.8670086409202</v>
+        <v>197.161180532116</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.490365775563015e-07</v>
+        <v>5.615706603290459e-07</v>
       </c>
       <c r="C10" t="n">
         <v>408948383.2066252</v>
       </c>
       <c r="D10" t="n">
-        <v>51.71964794810548</v>
+        <v>37.88855479162979</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.1844350902454e-05</v>
+        <v>6.013902111468007e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>154886445.9132544</v>
+        <v>126474690.9878362</v>
       </c>
       <c r="D11" t="n">
         <v>997.8604943304496</v>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001592022403413847</v>
+        <v>0.0009865176104280769</v>
       </c>
       <c r="C12" t="n">
-        <v>210796811.7953817</v>
+        <v>326377653.9308782</v>
       </c>
       <c r="D12" t="n">
         <v>997.1915106443145</v>
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.043565545629349e-06</v>
+        <v>4.777943306744675e-06</v>
       </c>
       <c r="C13" t="n">
         <v>395588833.0368251</v>
       </c>
       <c r="D13" t="n">
-        <v>987.7537453942018</v>
+        <v>937.0489646058805</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -714,38 +714,38 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0004197908586092042</v>
+        <v>0.0001348503470898363</v>
       </c>
       <c r="C14" t="n">
-        <v>408948383.2066252</v>
+        <v>10114340.31522949</v>
       </c>
       <c r="D14" t="n">
-        <v>997.8604943304496</v>
+        <v>230.4940189583402</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.605274229411899e-05</v>
+        <v>0.0009865176104280769</v>
       </c>
       <c r="C15" t="n">
-        <v>4998090.342992672</v>
+        <v>408948383.2066252</v>
       </c>
       <c r="D15" t="n">
-        <v>93.10258483383957</v>
+        <v>997.9854179211003</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.955355829198833e-06</v>
+        <v>5.181293727697022e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>20395979.87520798</v>
+        <v>7343543.002355897</v>
       </c>
       <c r="D16" t="n">
-        <v>84.75578163155075</v>
+        <v>124.7184775164601</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>103.0</t>
         </is>
       </c>
     </row>
@@ -777,17 +777,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.618884605038557e-05</v>
+        <v>6.758794888610368e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>8818034.481529806</v>
+        <v>43220956.07947452</v>
       </c>
       <c r="D17" t="n">
-        <v>152.7070562743908</v>
+        <v>160.7790404368141</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>107.0</t>
         </is>
       </c>
     </row>
@@ -798,17 +798,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.873519367489278e-05</v>
+        <v>4.261048389062205e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>14901971.03766771</v>
+        <v>95291692.46273935</v>
       </c>
       <c r="D18" t="n">
-        <v>232.0800001894659</v>
+        <v>849.3268665268261</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>110.0</t>
         </is>
       </c>
     </row>
@@ -819,17 +819,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.411507145344627e-06</v>
+        <v>4.426262384260167e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>45146241.08500204</v>
+        <v>64012512.91608286</v>
       </c>
       <c r="D19" t="n">
-        <v>91.1679797617966</v>
+        <v>745.3084251193324</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>111.0</t>
         </is>
       </c>
     </row>
@@ -840,17 +840,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0002925780235465579</v>
+        <v>5.208623998078257e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>8228739.423079601</v>
+        <v>89808368.57931417</v>
       </c>
       <c r="D20" t="n">
-        <v>567.242821642742</v>
+        <v>155.1353109618224</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>112.0</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.860991505746858e-05</v>
+        <v>0.0002836334772459076</v>
       </c>
       <c r="C21" t="n">
-        <v>99990259.73679659</v>
+        <v>10807655.37058597</v>
       </c>
       <c r="D21" t="n">
-        <v>675.3000371793903</v>
+        <v>551.2591161639812</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>207.0</t>
+          <t>204.0</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.401449908001299e-06</v>
+        <v>2.418579831705584e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>100546426.671928</v>
+        <v>216514421.2482603</v>
       </c>
       <c r="D22" t="n">
-        <v>36.2525941797679</v>
+        <v>871.2841248212904</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>302.0</t>
+          <t>207.0</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.863182490538977e-07</v>
+        <v>1.072488532714677e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>180886154.1951635</v>
+        <v>352054664.3073219</v>
       </c>
       <c r="D23" t="n">
-        <v>19.66477444682484</v>
+        <v>109.5098047625642</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>307.0</t>
+          <t>302.0</t>
         </is>
       </c>
     </row>
@@ -924,17 +924,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.537003068325799e-05</v>
+        <v>3.973040320272417e-07</v>
       </c>
       <c r="C24" t="n">
-        <v>46170075.88486136</v>
+        <v>211076857.145157</v>
       </c>
       <c r="D24" t="n">
-        <v>533.6464412633178</v>
+        <v>18.91449738369083</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>308.0</t>
+          <t>307.0</t>
         </is>
       </c>
     </row>
@@ -945,17 +945,17 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.44291035009542e-05</v>
+        <v>4.139762699957087e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>78546826.18645237</v>
+        <v>68391723.43971014</v>
       </c>
       <c r="D25" t="n">
-        <v>824.5019783362626</v>
+        <v>770.4502267536827</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>311.0</t>
+          <t>308.0</t>
         </is>
       </c>
     </row>
@@ -966,17 +966,17 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.689800283907838e-06</v>
+        <v>0.0002770096678769084</v>
       </c>
       <c r="C26" t="n">
-        <v>272781915.5404968</v>
+        <v>21631257.33604601</v>
       </c>
       <c r="D26" t="n">
-        <v>747.5410486146454</v>
+        <v>246.8571912816361</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>312.0</t>
+          <t>311.0</t>
         </is>
       </c>
     </row>
@@ -987,59 +987,59 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.538741630498507e-05</v>
+        <v>3.632665629715762e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>49210320.23216975</v>
+        <v>295877488.0026367</v>
       </c>
       <c r="D27" t="n">
-        <v>282.8791025213569</v>
+        <v>845.4689975090417</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>312.0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.165955748196057e-05</v>
+        <v>8.304760944255115e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>2258847.981188979</v>
+        <v>3487757.267555278</v>
       </c>
       <c r="D28" t="n">
-        <v>38.42016587294479</v>
+        <v>98.75792586656031</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.804299853916445e-06</v>
+        <v>0.0001546972552487826</v>
       </c>
       <c r="C29" t="n">
-        <v>5698043.485320333</v>
+        <v>42483271.58641604</v>
       </c>
       <c r="D29" t="n">
-        <v>27.34778332267447</v>
+        <v>349.1383572056744</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
@@ -1050,17 +1050,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.935023784697691e-05</v>
+        <v>3.165955748196057e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>5596361.560454701</v>
+        <v>2319280.941458384</v>
       </c>
       <c r="D30" t="n">
-        <v>90.26081188620046</v>
+        <v>43.14086368981239</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>103.0</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1071,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.851002972047237e-05</v>
+        <v>3.804299853916445e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>2191424.00855892</v>
+        <v>6950228.059404299</v>
       </c>
       <c r="D31" t="n">
-        <v>33.16329554933971</v>
+        <v>27.61018587136334</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>107.0</t>
         </is>
       </c>
     </row>
@@ -1092,17 +1092,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.786698088043514e-06</v>
+        <v>2.516046557578335e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>8938555.695983289</v>
+        <v>56559727.21867213</v>
       </c>
       <c r="D32" t="n">
-        <v>17.9363392871914</v>
+        <v>656.4635177248963</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>110.0</t>
         </is>
       </c>
     </row>
@@ -1113,17 +1113,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0001962450742937332</v>
+        <v>2.955139254131e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>4744106.074591634</v>
+        <v>34930537.68068885</v>
       </c>
       <c r="D33" t="n">
-        <v>270.1748890711451</v>
+        <v>458.5033164298355</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>111.0</t>
         </is>
       </c>
     </row>
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.087666894269811e-05</v>
+        <v>2.012406941096526e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>37830834.69904707</v>
+        <v>19644721.49649108</v>
       </c>
       <c r="D34" t="n">
-        <v>319.2973712982535</v>
+        <v>32.27593041819726</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>207.0</t>
+          <t>112.0</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.877419468116911e-07</v>
+        <v>0.0001005322861345986</v>
       </c>
       <c r="C35" t="n">
-        <v>28480762.49927781</v>
+        <v>3324216.941573309</v>
       </c>
       <c r="D35" t="n">
-        <v>12.15429827110037</v>
+        <v>166.8589943653258</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>302.0</t>
+          <t>204.0</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.421856662300923e-07</v>
+        <v>1.709476890908215e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>59183276.43743556</v>
+        <v>160791400.4488313</v>
       </c>
       <c r="D36" t="n">
-        <v>10.37538831916825</v>
+        <v>767.8509803818858</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>307.0</t>
+          <t>207.0</t>
         </is>
       </c>
     </row>
@@ -1197,17 +1197,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.082847374181603e-05</v>
+        <v>6.117733056291156e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>9546504.539357912</v>
+        <v>276611945.3647727</v>
       </c>
       <c r="D37" t="n">
-        <v>129.4910490018457</v>
+        <v>65.03577050813826</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>308.0</t>
+          <t>302.0</t>
         </is>
       </c>
     </row>
@@ -1218,17 +1218,17 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.677295879599765e-05</v>
+        <v>2.448699094560708e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>31965475.9367763</v>
+        <v>105471658.155387</v>
       </c>
       <c r="D38" t="n">
-        <v>589.6655728490776</v>
+        <v>10.37538831916825</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>311.0</t>
+          <t>307.0</t>
         </is>
       </c>
     </row>
@@ -1239,17 +1239,17 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.894110138699201e-06</v>
+        <v>2.534266185346766e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>133284787.1938737</v>
+        <v>36986764.74191146</v>
       </c>
       <c r="D39" t="n">
-        <v>418.7587407118398</v>
+        <v>459.4143422188307</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>312.0</t>
+          <t>308.0</t>
         </is>
       </c>
     </row>
@@ -1260,80 +1260,80 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.421856662300923e-07</v>
+        <v>1.251534275683191e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>2191424.00855892</v>
+        <v>106363.0619529402</v>
       </c>
       <c r="D40" t="n">
-        <v>10.37538831916825</v>
+        <v>10.17198644059931</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>311.0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Shapiro-Wilk p-value</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6442560528001242</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>1.07455494869852e-05</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>1.0873941751326e-05</v>
+        <v>2.217984282282104e-06</v>
+      </c>
+      <c r="C41" t="n">
+        <v>210759905.1503652</v>
+      </c>
+      <c r="D41" t="n">
+        <v>703.2765314663089</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>312.0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Shapiro-Wilk p-value</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>0.0006165947050826516</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>3.398806651656388e-06</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>1.236868411884117e-05</v>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4.290445699592193e-05</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1557884.599397286</v>
+      </c>
+      <c r="D42" t="n">
+        <v>50.35901888947362</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Shapiro-Wilk p-value</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3920819510363628</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>0.001475891931040864</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>0.00530964746175642</v>
+        <v>2.448699094560708e-07</v>
+      </c>
+      <c r="C43" t="n">
+        <v>106363.0619529402</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10.17198644059931</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
@@ -1343,18 +1343,18 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
-        <v>1.733375193370991e-05</v>
+      <c r="B44" t="n">
+        <v>0.2070750830492896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>3.918953372217111e-18</v>
+        <v>2.446141667788117e-07</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>8.800434466844191e-18</v>
+        <v>7.203952526929942e-07</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>103.0</t>
         </is>
       </c>
     </row>
@@ -1364,18 +1364,18 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0.06653363135416009</v>
+      <c r="B45" s="1" t="n">
+        <v>3.381721775233846e-05</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>6.268464710989336e-08</v>
+        <v>5.116260594672409e-14</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>8.723024665363052e-08</v>
+        <v>2.721296603748022e-13</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>107.0</t>
         </is>
       </c>
     </row>
@@ -1385,18 +1385,18 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>0.0270946969657451</v>
+      <c r="B46" t="n">
+        <v>0.07228957556188265</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0.00399391704547102</v>
+        <v>0.03244552627328603</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09208745012373745</v>
+        <v>0.0701071209247353</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>110.0</t>
         </is>
       </c>
     </row>
@@ -1406,18 +1406,18 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>0.297367654338284</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>0.00481378727940896</v>
+      <c r="B47" s="1" t="n">
+        <v>0.03408769051267899</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1174746446629844</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4246267427576799</v>
+        <v>0.1192667325404315</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>207.0</t>
+          <t>111.0</t>
         </is>
       </c>
     </row>
@@ -1427,18 +1427,18 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>0.001694470422023269</v>
+      <c r="B48" t="n">
+        <v>0.3927174662769324</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>4.755016513638501e-06</v>
+        <v>1.761672200213314e-05</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>4.146239659028519e-06</v>
+        <v>1.43456985640896e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>302.0</t>
+          <t>112.0</t>
         </is>
       </c>
     </row>
@@ -1449,17 +1449,17 @@
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>0.04994027472974492</v>
+        <v>2.295019736741911e-12</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>0.007339341244556812</v>
+        <v>2.726462824493681e-17</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>9.104298581820139e-07</v>
+        <v>6.126278845636398e-05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>307.0</t>
+          <t>204.0</t>
         </is>
       </c>
     </row>
@@ -1469,18 +1469,18 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
-        <v>0.0002440311911248121</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>2.369214121407345e-08</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>3.078280676103709e-05</v>
+      <c r="B50" t="n">
+        <v>0.6605408241455377</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.3067165483427968</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.09078073198988466</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>308.0</t>
+          <t>207.0</t>
         </is>
       </c>
     </row>
@@ -1490,18 +1490,18 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B51" s="1" t="n">
-        <v>0.02791637210323775</v>
-      </c>
-      <c r="C51" s="1" t="n">
-        <v>0.0006430864350806907</v>
+      <c r="B51" t="n">
+        <v>0.8937714927593158</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1177883058760371</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1145525157791308</v>
+        <v>0.217079781960658</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>311.0</t>
+          <t>302.0</t>
         </is>
       </c>
     </row>
@@ -1511,18 +1511,18 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>0.04428573560443329</v>
+      <c r="B52" t="n">
+        <v>0.2099015991073381</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3436325319884576</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.2869093133043514</v>
+        <v>0.1014086455454888</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>0.01296274976163839</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>312.0</t>
+          <t>307.0</t>
         </is>
       </c>
     </row>
@@ -1532,102 +1532,102 @@
           <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>1.504697292064189e-41</v>
+      <c r="B53" t="n">
+        <v>0.2728344539821482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>1.866989355636533e-38</v>
+        <v>0.03706738626277671</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>6.292844135170657e-31</v>
+        <v>0.02174168920757213</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>308.0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Std</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1.290056661890357e-05</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2606402.546271403</v>
-      </c>
-      <c r="D54" t="n">
-        <v>47.45412037273098</v>
+          <t>Shapiro-Wilk p-value</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>6.288736851939358e-14</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>5.745593948119353e-25</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>3.146896701636105e-17</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>311.0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Std</t>
+          <t>Shapiro-Wilk p-value</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.857251553435081e-06</v>
+        <v>0.7104655978850715</v>
       </c>
       <c r="C55" t="n">
-        <v>10421718.09642647</v>
+        <v>0.2837688673722694</v>
       </c>
       <c r="D55" t="n">
-        <v>42.39950149105543</v>
+        <v>0.07721175933919973</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>312.0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Std</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>5.807917445290977e-06</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4121448.99459676</v>
-      </c>
-      <c r="D56" t="n">
-        <v>71.3399629830559</v>
+          <t>Shapiro-Wilk p-value</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>0.04938775961595641</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>1.488240182092496e-05</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>0.0002186760819630764</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>MP</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Std</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1.169085200388947e-05</v>
-      </c>
-      <c r="C57" t="n">
-        <v>15070321.21176825</v>
-      </c>
-      <c r="D57" t="n">
-        <v>224.2312244024272</v>
+          <t>Shapiro-Wilk p-value</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1.412410663720808e-34</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>1.999069607453136e-42</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>1.407139051659844e-27</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
@@ -1638,17 +1638,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.106116850190167e-06</v>
+        <v>1.175186961866179e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>39083660.23745333</v>
+        <v>5924530.074194158</v>
       </c>
       <c r="D58" t="n">
-        <v>76.44155347448981</v>
+        <v>93.05155695204387</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>103.0</t>
         </is>
       </c>
     </row>
@@ -1659,17 +1659,17 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6.430019165177791e-05</v>
+        <v>1.736455258061946e-06</v>
       </c>
       <c r="C59" t="n">
-        <v>2635857.013558099</v>
+        <v>36910253.72520282</v>
       </c>
       <c r="D59" t="n">
-        <v>193.0158418809229</v>
+        <v>127.7634528775507</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>107.0</t>
         </is>
       </c>
     </row>
@@ -1680,17 +1680,17 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.041179994874603e-05</v>
+        <v>1.19203915765642e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>50551207.85853679</v>
+        <v>28311316.02346012</v>
       </c>
       <c r="D60" t="n">
-        <v>189.9498283895252</v>
+        <v>100.7680084211424</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>207.0</t>
+          <t>110.0</t>
         </is>
       </c>
     </row>
@@ -1701,17 +1701,17 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3.40456317232301e-07</v>
+        <v>1.015732660850215e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>72808501.26510778</v>
+        <v>19671724.66593929</v>
       </c>
       <c r="D61" t="n">
-        <v>23.97371960102841</v>
+        <v>159.5599283323451</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>302.0</t>
+          <t>111.0</t>
         </is>
       </c>
     </row>
@@ -1722,17 +1722,17 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.648787813282262e-07</v>
+        <v>1.742322750607726e-06</v>
       </c>
       <c r="C62" t="n">
-        <v>79827098.31935687</v>
+        <v>69010943.62441741</v>
       </c>
       <c r="D62" t="n">
-        <v>8.782749704721578</v>
+        <v>119.1690345772988</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>307.0</t>
+          <t>112.0</t>
         </is>
       </c>
     </row>
@@ -1743,17 +1743,17 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.507261129644533e-05</v>
+        <v>0.0001484711700358951</v>
       </c>
       <c r="C63" t="n">
-        <v>27366440.52367187</v>
+        <v>7599666.946610838</v>
       </c>
       <c r="D63" t="n">
-        <v>242.9284430687831</v>
+        <v>216.5963799616706</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>308.0</t>
+          <t>204.0</t>
         </is>
       </c>
     </row>
@@ -1764,17 +1764,17 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3.341228469748291e-05</v>
+        <v>5.876120050627175e-06</v>
       </c>
       <c r="C64" t="n">
-        <v>40562694.15122897</v>
+        <v>61418987.3453288</v>
       </c>
       <c r="D64" t="n">
-        <v>114.773788274825</v>
+        <v>79.90395773602667</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>311.0</t>
+          <t>207.0</t>
         </is>
       </c>
     </row>
@@ -1785,17 +1785,17 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.569142231444208e-06</v>
+        <v>3.099831697468346e-07</v>
       </c>
       <c r="C65" t="n">
-        <v>81659665.89155446</v>
+        <v>44872401.87046166</v>
       </c>
       <c r="D65" t="n">
-        <v>169.8662560904737</v>
+        <v>36.89967688101355</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>312.0</t>
+          <t>302.0</t>
         </is>
       </c>
     </row>
@@ -1806,22 +1806,127 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.279233992420035e-05</v>
+        <v>9.840182314185137e-08</v>
       </c>
       <c r="C66" t="n">
-        <v>66947082.77628107</v>
+        <v>77288371.43924952</v>
       </c>
       <c r="D66" t="n">
-        <v>291.8439224999285</v>
+        <v>7.30332472787508</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>307.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>9.158392195925043e-06</v>
+      </c>
+      <c r="C67" t="n">
+        <v>21562302.15204449</v>
+      </c>
+      <c r="D67" t="n">
+        <v>167.5727491808093</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0002370442155384987</v>
+      </c>
+      <c r="C68" t="n">
+        <v>40971469.75132569</v>
+      </c>
+      <c r="D68" t="n">
+        <v>272.2710000833769</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>9.486477142000893e-07</v>
+      </c>
+      <c r="C69" t="n">
+        <v>72078172.8265364</v>
+      </c>
+      <c r="D69" t="n">
+        <v>100.0350356267256</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2.458902337107151e-05</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1460043.565988662</v>
+      </c>
+      <c r="D70" t="n">
+        <v>36.56271902137198</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0001894765076197337</v>
+      </c>
+      <c r="C71" t="n">
+        <v>68107704.27793479</v>
+      </c>
+      <c r="D71" t="n">
+        <v>304.1875069294143</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Population</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B14">
+  <conditionalFormatting sqref="B2:B15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1833,7 +1938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
+  <conditionalFormatting sqref="C2:C15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1845,7 +1950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D14">
+  <conditionalFormatting sqref="D2:D15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1857,7 +1962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B27">
+  <conditionalFormatting sqref="B16:B29">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1869,7 +1974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C27">
+  <conditionalFormatting sqref="C16:C29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1881,7 +1986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D27">
+  <conditionalFormatting sqref="D16:D29">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1893,7 +1998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B40">
+  <conditionalFormatting sqref="B30:B43">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1905,7 +2010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C40">
+  <conditionalFormatting sqref="C30:C43">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1917,7 +2022,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D40">
+  <conditionalFormatting sqref="D30:D43">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1929,7 +2034,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B66">
+  <conditionalFormatting sqref="B58:B71">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1941,7 +2046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:C66">
+  <conditionalFormatting sqref="C58:C71">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1953,7 +2058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D66">
+  <conditionalFormatting sqref="D58:D71">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
